--- a/to_buy.xlsx
+++ b/to_buy.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGN\projects\plc\kiCad\plc\verision_14in_14out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGN\projects\plc\kiCad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3581A2C-5F41-4C6A-B5F1-47BEE9EB1A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305CF2C8-2E2E-4679-A57C-BC497A060F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDFC60CF-F3A3-4DEB-9C37-AAA9A198FE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/SN74AHCT125QDRQ1?qs=zhgwDAIOVxtE5BLiD9k5oQ%3D%3D</t>
   </si>
@@ -33,20 +33,745 @@
     <t>74AHCT125</t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Cant</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <t xml:space="preserve">    BT1</t>
+  </si>
+  <si>
+    <t>Battery_Cell</t>
+  </si>
+  <si>
+    <t>BatteryHolder_Keystone_103_1x20mm_new</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>&gt;  C1-C14, C23, C24, C26</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C15</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C16</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric_Pad1.08x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>&gt;  C17, C18</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>&gt;  C19, C20</t>
+  </si>
+  <si>
+    <t>&gt;  C21, C27</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C22</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C25</t>
+  </si>
+  <si>
+    <t>470uF</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Radial_D8.0mm_H11.5mm_P3.50mm</t>
+  </si>
+  <si>
+    <t>&gt;  D1-D22, D29</t>
+  </si>
+  <si>
+    <t>GREEN-LED</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_1206_3216Metric_Castellated</t>
+  </si>
+  <si>
+    <t>&gt;  D23-D28, D30</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D31</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMA_Handsoldering</t>
+  </si>
+  <si>
+    <t>&gt;  D32, D33</t>
+  </si>
+  <si>
+    <t>1N47xxA</t>
+  </si>
+  <si>
+    <t>Diode_THT:D_DO-41_SOD81_P10.16mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/85816/1n4728a.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    F1</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_2920_7451Metric_Castellated</t>
+  </si>
+  <si>
+    <t>&gt;  J1, J11</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Altech:Altech_AK300_1x02_P5.00mm_45-Degree</t>
+  </si>
+  <si>
+    <t>&gt;  J2, J7, J8</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x06</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Altech:Altech_AK300_1x06_P5.00mm_45-Degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J3</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x10</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Altech:Altech_AK300_1x10_P5.00mm_45-Degree</t>
+  </si>
+  <si>
+    <t>&gt;  J4, J5</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x05</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Altech:Altech_AK300_1x05_P5.00mm_45-Degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J6</t>
+  </si>
+  <si>
+    <t>RJ45_LED</t>
+  </si>
+  <si>
+    <t>Connector_RJ:RJ45_Hanrun_HR911105A</t>
+  </si>
+  <si>
+    <t>&gt;  J9, J10</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J12</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J13</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x04</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Altech:Altech_AK300_1x04_P5.00mm_45-Degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J14</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J15</t>
+  </si>
+  <si>
+    <t>SERIAL_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J16</t>
+  </si>
+  <si>
+    <t>I2C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J17</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J19</t>
+  </si>
+  <si>
+    <t>SERIAL_5</t>
+  </si>
+  <si>
+    <t>&gt;  J18, J20-J25</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x01</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x01_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>&gt;  K1-K8</t>
+  </si>
+  <si>
+    <t>UMS05-1A80-75L</t>
+  </si>
+  <si>
+    <t>relay_HF49FD_024_1H11:Relay_SPST_TE_PCN-1xxD3MHZ</t>
+  </si>
+  <si>
+    <t>https://standexelectronics.com/de/produkte/ums-reed-relais/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L1</t>
+  </si>
+  <si>
+    <t>0.1uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>&gt;  Q1-Q7</t>
+  </si>
+  <si>
+    <t>IRG4PF50W</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TO-252-2</t>
+  </si>
+  <si>
+    <t>http://www.irf.com/product-info/datasheets/data/irg4pf50w.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  R1-R14, R81</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>&gt;  R15-R28, R41-R43, R82</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>&gt;  R29, R30</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>&gt;  R31, R50</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>&gt;  R32-R39</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R40</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>&gt;  R44, R45</t>
+  </si>
+  <si>
+    <t>&gt;  R46-R49</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>&gt;  R51, R56-R60, R83</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>&gt;  R52, R61-R65, R84</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>&gt;  R53, R54, R66, R67, R69, R70, R72, R73, R75, R76, R78, R79, R85, R86</t>
+  </si>
+  <si>
+    <t>&gt;  R55, R68, R71, R74, R77, R80, R87</t>
+  </si>
+  <si>
+    <t>&gt;  R88, R89, R91, R92</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>&gt;  SW1-SW3, SW5</t>
+  </si>
+  <si>
+    <t>SW_DIP_x01</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SW4</t>
+  </si>
+  <si>
+    <t>Prog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SW6</t>
+  </si>
+  <si>
+    <t>Button_Switch_THT:SW_DIP_SPSTx01_Slide_9.78x4.72mm_W7.62mm_P2.54mm</t>
+  </si>
+  <si>
+    <t>&gt;  U9, U10, U28-U33, U35</t>
+  </si>
+  <si>
+    <t>TLP127</t>
+  </si>
+  <si>
+    <t>Package_SO:MFSOP6-4_4.4x3.6mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=16902&amp;prodName=TLP127</t>
+  </si>
+  <si>
+    <t>&gt;  U1-U8, U11-U14, U34</t>
+  </si>
+  <si>
+    <t>tlp127</t>
+  </si>
+  <si>
+    <t>&gt;  U15, U16</t>
+  </si>
+  <si>
+    <t>74HC14</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/gpn/sn74HC14</t>
+  </si>
+  <si>
+    <t>&gt;  U15-U17</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>&gt;  U18, U20</t>
+  </si>
+  <si>
+    <t>74HC245</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-20_12.8x7.5mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/gpn/sn74HC245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U19</t>
+  </si>
+  <si>
+    <t>Teensy3.5_All_Pins</t>
+  </si>
+  <si>
+    <t>teensy:Teensy35_36_MODIFY</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/teensy/card8a_rev2.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/teensy/pinout.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U21</t>
+  </si>
+  <si>
+    <t>ULN2803A</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-18_7x12.5mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/uln2803a.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  U22, U23, U26, U27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U24</t>
+  </si>
+  <si>
+    <t>ENC28J60x-SS</t>
+  </si>
+  <si>
+    <t>Package_SO:SSOP-28_5.3x10.2mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/devicedoc/39662e.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U25</t>
+  </si>
+  <si>
+    <t>LD1117S33TR_SOT223</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.st.com/st-web-ui/static/active/en/resource/technical/document/datasheet/CD00000544.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U36</t>
+  </si>
+  <si>
+    <t>LM7810_TO220</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_THT:TO-220-3_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.cn/PowerSolutions/document/MC7800-D.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Y1</t>
+  </si>
+  <si>
+    <t>25Mhz</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_HC49-4H_Vertical</t>
+  </si>
+  <si>
+    <t>Dadasheet</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/search?q=SS14E-TP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Battery-Holders-Clips-Contacts_CR2032battery_C70376.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_CT41G-0603-2X1-50V-0-1mF-K-N_C125205.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-1206B104K500NT_C110253.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM21BB31A106KE18L_C162316.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM1882C1H180JA01D_C415402.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_CCTC-TCC0805X7R104K500DT_C282732.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-220uF-25V-high-frequency_C114911.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-470uF-100V-16-25_C72551.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_Everlight-Elec-15-21SDRC-S530-A2-TR8_C264387.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Zener-Diodes_ON-Semiconductor-ON-1N4733A_C140851.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Resettable-Fuses_span-style-background-color-ff0-TECHFUSE-span-SMD400L-24V_C2937113.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el link es un TB de 3 pines, para hacer 1 de 6 serían montar 2, 2*3=6</t>
+    </r>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Screw-terminal_span-style-background-color-ff0-DIBO-span-DB128V-5-0-3P-GN-S_C484209.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Screw-terminal_DIBO-DB128V-5-0-2P-GN-S_C395860.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Montar 1TB de 3 y 1TB de 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> montar dos Terminal Block(TB) de 3 y dos de 2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ethernet-Connectors-Modular-Connectors-RJ45-RJ11_HANRUN-Zhongshan-HanRun-Elec-HR911105A_C12074.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_TE-Connectivity_6-146276-0_TE-Connectivity-6-146276-0_C306214.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Montar 2 TB de 2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Relays_HF-Xiamen-Hongfa-Electroacoustic-HF49FD-024-1H11_C33824.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Inductors-SMD_FH-Guangdong-Fenghua-Advanced-Tech-CMP201209UD1R0MT_C401475.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/IGBTs_Alpha-Omega-Semicon-AOD5B60D_C176751.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_20KR-203-5_C102303.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_ResistorToday-ETCR0603F10K0K9_C365375.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-span-style-background-color-ff0-Resistor-span-Surface-Mount_TyoHM-RMC12061-2K1-N_C269579.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_470R-4700-1_C104814.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Resistor-Today-AECR0603F2K70K9_C328353.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_RALEC-RAT034700FTP_C304484.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_TyoHM-RMC080549-91-N_C269747.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_TyoHM-RMC06031K5-N_C269685.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-span-style-background-color-ff0-Resistor-span-Surface-Mount_VO-SCR0603J390R_C3017746.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Resistor-Today-AECR0805F1K00K9_C328385.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_SEI-Stackpole-Elec-RMCF0805FT10K0_C237755.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Resistor-Today-AECR1206F10K0K9_C328409.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Optocouplers_TOSHIBA_TLP127-TPL-U-F_TOSHIBA-TLP127-TPL-U-F_C5001.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/74-Series_Nexperia_74HC14D-653_74HC14D-653_C5605.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/74-Series_NXP_74HC245D-653_74HC245D_C5625.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Darlington-transistor-array-driver_Sinotech-Mixic-Elec-ULN2803A_C107219.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ethernet-ICs_Microchip-Tech-ENC28J60-I-SS_C411626.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_KEXIN-AMS1117-3-3_C369933.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators_UTC-Unisonic-Tech-LM7810L-TA3-T_C95077.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/DIP-Crystal-Resonators_Suzhou-Liming-Elec-49S-25-000-20-20-20-A_C240913.html?from_code=PL20191220BSDR</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Female-Headers_ZHOURI-2-54-1-40_C2977610.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA: </t>
+  </si>
+  <si>
+    <t>En el pin header Serial_1(J15) se conecta el módulo para la comunicación serial RS232 o RS485 con el HMI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.ebay.com%2Fitm%2F292602822407&amp;psig=AOvVaw0IhrkeCjquqXJ8e-zahKvy&amp;ust=1668355532691000&amp;source=images&amp;cd=vfe&amp;ved=2ahUKEwjF7azogqn7AhWzazABHVRKDkoQjRx6BAgAEAo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ultra-Compact-RS232-Converter-Female/dp/B00OPTOKI0/ref=pd_sim_147_1?_encoding=UTF8&amp;pd_rd_i=B00OPTOKI0&amp;pd_rd_r=EMQ9M3JHBXCZYWHA26WW&amp;pd_rd_w=vpP7w&amp;pd_rd_wg=Z63LW&amp;psc=1&amp;refRID=EMQ9M3JHBXCZYWHA26WW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS485: </t>
+  </si>
+  <si>
+    <t>https://protosupplies.com/product/max3232-ttl-to-rs-232-interface-module/</t>
+  </si>
+  <si>
+    <t>https://protosupplies.com/product/scm-ttl-to-rs-485-interface-module/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwjR4LvQh6n7AhUAQjABHSWsDzAQFnoECD8QAQ&amp;url=https%3A%2F%2Fwww.ebay.com%2Fitm%2F381374599127&amp;usg=AOvVaw2R0Ez7aZDVfFBr_9LLYwUI</t>
+  </si>
+  <si>
+    <t>RS232</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +787,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,13 +823,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,71 +1160,1507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C535982-3760-4729-B077-80758AFE5C34}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="0.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.21875" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="J2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>470</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>49.9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42">
+        <v>390</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50">
+        <v>13</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J63" s="10"/>
+      <c r="K63" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J64" s="10"/>
+      <c r="K64" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>215</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+  <mergeCells count="11">
+    <mergeCell ref="J51:W52"/>
+    <mergeCell ref="J24:X29"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="J46:X47"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="J49:X50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{45E681EA-0720-4DFC-B6C1-C138351D8F6D}"/>
+    <hyperlink ref="J56" r:id="rId1" xr:uid="{A8043F66-EB17-41EE-A1F2-18F304B84968}"/>
+    <hyperlink ref="J17" r:id="rId2" xr:uid="{62B52B9B-9E52-4EE6-852E-A3791C47DB53}"/>
+    <hyperlink ref="J22" r:id="rId3" xr:uid="{38C7C4C4-D0E7-49B8-B094-AC90D3107D3C}"/>
+    <hyperlink ref="J34" r:id="rId4" xr:uid="{02082E4B-3EF6-4A25-B0E1-D53E9AEE59AA}"/>
+    <hyperlink ref="J35" r:id="rId5" xr:uid="{85DE2790-7C26-4432-A9E5-E93B5086980C}"/>
+    <hyperlink ref="J42" r:id="rId6" xr:uid="{A4D38996-74AC-4394-90AB-2054C90E4588}"/>
+    <hyperlink ref="J43" r:id="rId7" xr:uid="{9FA77991-42CD-40D4-A161-CF3561ACC333}"/>
+    <hyperlink ref="J44" r:id="rId8" xr:uid="{DA00DEC2-6097-4FFB-B01E-7E9165F91CAA}"/>
+    <hyperlink ref="J45" r:id="rId9" xr:uid="{93FABE11-5A3E-4412-8EB8-54B6EE4C45BC}"/>
+    <hyperlink ref="J24" r:id="rId10" xr:uid="{82F1F4D6-44CA-498B-BDD0-76DE94487D3B}"/>
+    <hyperlink ref="J49" r:id="rId11" xr:uid="{135C8356-1F64-4062-9860-87690AE6DCD1}"/>
+    <hyperlink ref="J51" r:id="rId12" xr:uid="{A7F7FFDB-E923-4450-A21B-C5E9921EC165}"/>
+    <hyperlink ref="J58" r:id="rId13" xr:uid="{3F95F58B-C5F9-4C4C-ADBC-85A86855D126}"/>
+    <hyperlink ref="J59" r:id="rId14" xr:uid="{62483619-C2B5-4CAF-824D-F14DF02593D6}"/>
+    <hyperlink ref="J60" r:id="rId15" xr:uid="{4A206DA0-F161-40EB-83AF-E63A8B929EFE}"/>
+    <hyperlink ref="J21" r:id="rId16" xr:uid="{33D0A1EF-50F1-44E7-A5FF-CBA793A7C17C}"/>
+    <hyperlink ref="K62" r:id="rId17" xr:uid="{0BD1152D-718A-4025-83C0-689F135EB279}"/>
+    <hyperlink ref="K63" r:id="rId18" xr:uid="{788C50B8-5A8C-47DD-9E95-E0A02968E289}"/>
+    <hyperlink ref="K64" r:id="rId19" xr:uid="{BFBFCC76-B727-492B-A380-0E849145921F}"/>
+    <hyperlink ref="K66" r:id="rId20" xr:uid="{2CE1FEF3-71E0-4971-80F2-291F86FD2EE1}"/>
+    <hyperlink ref="K67" r:id="rId21" xr:uid="{919A65C4-0DFE-4C03-83CD-5B93D3281C08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>